--- a/data/trans_orig/P25C_R2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25C_R2_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>6579</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2975</v>
+        <v>3363</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11826</v>
+        <v>11765</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03735623610598643</v>
+        <v>0.03735623610598644</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01688924638088923</v>
+        <v>0.01909432997323753</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06714934923414261</v>
+        <v>0.06679980174446053</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,16 +765,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2594</v>
+        <v>3629</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.01293267054964029</v>
+        <v>0.01293267054964028</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05513482705416885</v>
+        <v>0.07712920613043789</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -783,19 +783,19 @@
         <v>7188</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3865</v>
+        <v>3812</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12552</v>
+        <v>12950</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03220695915446453</v>
+        <v>0.03220695915446452</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01731870163330147</v>
+        <v>0.0170822875755332</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05624187835839078</v>
+        <v>0.05802757289929308</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>169540</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>164293</v>
+        <v>164354</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>173144</v>
+        <v>172756</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9626437638940137</v>
+        <v>0.9626437638940136</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9328506507658575</v>
+        <v>0.9332001982555405</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9831107536191109</v>
+        <v>0.9809056700267628</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>73</v>
@@ -833,7 +833,7 @@
         <v>46443</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>44458</v>
+        <v>43423</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>47052</v>
@@ -842,7 +842,7 @@
         <v>0.9870673294503597</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9448651729458309</v>
+        <v>0.9228707938695625</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -854,19 +854,19 @@
         <v>215983</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>210619</v>
+        <v>210221</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>219306</v>
+        <v>219359</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9677930408455354</v>
+        <v>0.9677930408455355</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9437581216416085</v>
+        <v>0.9419724271007061</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9826812983666985</v>
+        <v>0.9829177124244668</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>6387</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2923</v>
+        <v>2820</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12957</v>
+        <v>12246</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01920994112308744</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008790092484793196</v>
+        <v>0.008481899425864459</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03896969614870119</v>
+        <v>0.03683019945842948</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -979,19 +979,19 @@
         <v>9398</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4983</v>
+        <v>5300</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14720</v>
+        <v>15867</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04231191097258864</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02243566235861437</v>
+        <v>0.02385959784967004</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06626840993803762</v>
+        <v>0.07143310802015178</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -1000,19 +1000,19 @@
         <v>15786</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10393</v>
+        <v>9685</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23550</v>
+        <v>24013</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02846230660262769</v>
+        <v>0.0284623066026277</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01874001500634127</v>
+        <v>0.01746266837469822</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04246237842574564</v>
+        <v>0.04329669438862756</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>326103</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>319533</v>
+        <v>320244</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>329567</v>
+        <v>329670</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9807900588769126</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9610303038512985</v>
+        <v>0.9631698005415703</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9912099075152069</v>
+        <v>0.9915181005741354</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>294</v>
@@ -1050,19 +1050,19 @@
         <v>212725</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>207403</v>
+        <v>206256</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>217140</v>
+        <v>216823</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9576880890274114</v>
+        <v>0.9576880890274115</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9337315900619624</v>
+        <v>0.9285668919798481</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9775643376413855</v>
+        <v>0.9761404021503299</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>646</v>
@@ -1071,19 +1071,19 @@
         <v>538827</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>531063</v>
+        <v>530600</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>544220</v>
+        <v>544928</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9715376933973723</v>
+        <v>0.9715376933973725</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9575376215742545</v>
+        <v>0.9567033056113724</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9812599849936586</v>
+        <v>0.9825373316253017</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>1964</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4835</v>
+        <v>5346</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01320600402309821</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0</v>
+        <v>0.003875281849729562</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0325157427981627</v>
+        <v>0.03595603743730172</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1196,19 +1196,19 @@
         <v>4524</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1426</v>
+        <v>1959</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9185</v>
+        <v>9537</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04732598308679024</v>
+        <v>0.04732598308679026</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01491342459836004</v>
+        <v>0.0204920321302893</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09608464301739937</v>
+        <v>0.09977372955196735</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1217,19 +1217,19 @@
         <v>6487</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3203</v>
+        <v>3297</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11439</v>
+        <v>11642</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02655767698479144</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01311308622763772</v>
+        <v>0.01349755060850228</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0468265792827303</v>
+        <v>0.04765899321424147</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>146723</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>143852</v>
+        <v>143341</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>148687</v>
+        <v>148111</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9867939959769019</v>
+        <v>0.9867939959769018</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9674842572018373</v>
+        <v>0.9640439625626985</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1</v>
+        <v>0.9961247181502706</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>134</v>
@@ -1267,19 +1267,19 @@
         <v>91065</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>86404</v>
+        <v>86052</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>94163</v>
+        <v>93630</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9526740169132099</v>
+        <v>0.9526740169132097</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9039153569826006</v>
+        <v>0.9002262704480325</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9850865754016401</v>
+        <v>0.9795079678697107</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>294</v>
@@ -1288,19 +1288,19 @@
         <v>237790</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>232838</v>
+        <v>232635</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>241074</v>
+        <v>240980</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9734423230152084</v>
+        <v>0.9734423230152086</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9531734207172701</v>
+        <v>0.9523410067857586</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9868869137723623</v>
+        <v>0.9865024493914974</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>14930</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9312</v>
+        <v>9367</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23154</v>
+        <v>22075</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02271399279736965</v>
+        <v>0.02271399279736964</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01416761136622488</v>
+        <v>0.01425034469476134</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03522584568882824</v>
+        <v>0.0335840267830978</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -1413,19 +1413,19 @@
         <v>14531</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9779</v>
+        <v>9245</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21079</v>
+        <v>21894</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03983620142344352</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0268087337412303</v>
+        <v>0.0253463731310113</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05778811711216707</v>
+        <v>0.06002161767622384</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>42</v>
@@ -1434,19 +1434,19 @@
         <v>29461</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22498</v>
+        <v>21253</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40329</v>
+        <v>38314</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02882475147734136</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02201197330417043</v>
+        <v>0.02079407080917306</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03945824444703557</v>
+        <v>0.03748694259120759</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>642367</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>634143</v>
+        <v>635222</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>647985</v>
+        <v>647930</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9772860072026304</v>
+        <v>0.9772860072026301</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.964774154311172</v>
+        <v>0.9664159732169021</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9858323886337753</v>
+        <v>0.9857496553052389</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>501</v>
@@ -1484,19 +1484,19 @@
         <v>350233</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>343685</v>
+        <v>342870</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>354985</v>
+        <v>355519</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9601637985765566</v>
+        <v>0.9601637985765564</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.942211882887833</v>
+        <v>0.9399783823237762</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9731912662587697</v>
+        <v>0.9746536268689887</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1237</v>
@@ -1505,19 +1505,19 @@
         <v>992600</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>981732</v>
+        <v>983747</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>999563</v>
+        <v>1000808</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9711752485226585</v>
+        <v>0.9711752485226586</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9605417555529643</v>
+        <v>0.9625130574087922</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9779880266958295</v>
+        <v>0.9792059291908268</v>
       </c>
     </row>
     <row r="15">
